--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:D5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5700</v>
+        <v>5200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1166,9 +1166,15 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="3">
+        <v>45326</v>
+      </c>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
       <c r="E6" s="1">
         <v>34</v>
       </c>
@@ -1192,9 +1198,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45329</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
@@ -1218,9 +1230,15 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3">
+        <v>45329</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>36</v>
       </c>
@@ -1244,9 +1262,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>45330</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1">
         <v>37</v>
       </c>
@@ -1270,9 +1294,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>45331</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>38</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -322,7 +322,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -371,7 +371,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -649,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9:D10"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1326,9 +1326,15 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C11" s="4">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1">
         <v>39</v>
       </c>
@@ -1352,9 +1358,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C12" s="4">
+        <v>100</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>40</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1390,9 +1390,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3">
+        <v>45334</v>
+      </c>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1">
         <v>41</v>
       </c>
@@ -1416,9 +1422,15 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>45335</v>
+      </c>
+      <c r="C14" s="4">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1">
         <v>42</v>
       </c>
@@ -1442,9 +1454,15 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3">
+        <v>45336</v>
+      </c>
+      <c r="C15" s="4">
+        <v>100</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <v>43</v>
       </c>
@@ -1468,9 +1486,15 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1">
         <v>44</v>
       </c>
@@ -1494,9 +1518,15 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="3">
+        <v>45338</v>
+      </c>
+      <c r="C17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
       <c r="E17" s="1">
         <v>45</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -974,8 +974,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>4500</v>
+        <v>3800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1550,9 +1550,15 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C18" s="4">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
       <c r="E18" s="1">
         <v>46</v>
       </c>
@@ -1576,9 +1582,15 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="3">
+        <v>45340</v>
+      </c>
+      <c r="C19" s="4">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
       <c r="E19" s="1">
         <v>47</v>
       </c>
@@ -1602,9 +1614,15 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C20" s="4">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
       <c r="E20" s="1">
         <v>48</v>
       </c>
@@ -1628,9 +1646,15 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="3">
+        <v>45342</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
       <c r="E21" s="1">
         <v>49</v>
       </c>
@@ -1654,9 +1678,15 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="3">
+        <v>45344</v>
+      </c>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>
@@ -1680,9 +1710,15 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="3">
+        <v>45345</v>
+      </c>
+      <c r="C23" s="4">
+        <v>100</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
       <c r="E23" s="1">
         <v>51</v>
       </c>
@@ -1706,9 +1742,15 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="3">
+        <v>45346</v>
+      </c>
+      <c r="C24" s="4">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
       <c r="E24" s="1">
         <v>52</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:D24"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1774,9 +1774,15 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="3">
+        <v>45348</v>
+      </c>
+      <c r="C25" s="4">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
       <c r="E25" s="1">
         <v>53</v>
       </c>
@@ -1800,9 +1806,15 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="3">
+        <v>45350</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
       <c r="E26" s="1">
         <v>54</v>
       </c>
@@ -1826,9 +1838,15 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="3">
+        <v>45351</v>
+      </c>
+      <c r="C27" s="4">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
       <c r="E27" s="1">
         <v>55</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -322,7 +322,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -371,7 +371,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -649,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -974,8 +974,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26:D27"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>3500</v>
+        <v>3100</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1870,9 +1870,15 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C28" s="4">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
       <c r="E28" s="1">
         <v>56</v>
       </c>
@@ -1896,9 +1902,15 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="3">
+        <v>45354</v>
+      </c>
+      <c r="C29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
       <c r="E29" s="1">
         <v>57</v>
       </c>
@@ -1922,9 +1934,15 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="3">
+        <v>45355</v>
+      </c>
+      <c r="C30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
       <c r="E30" s="1">
         <v>58</v>
       </c>
@@ -1948,9 +1966,15 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="3">
+        <v>45358</v>
+      </c>
+      <c r="C31" s="4">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
       <c r="E31" s="1">
         <v>59</v>
       </c>

--- a/LoanOfficer-A/2023/21Kh Manisana.xlsx
+++ b/LoanOfficer-A/2023/21Kh Manisana.xlsx
@@ -974,8 +974,8 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1082,9 +1082,15 @@
       <c r="E3" s="1">
         <v>31</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1"/>
+      <c r="F3" s="3">
+        <v>45363</v>
+      </c>
+      <c r="G3" s="4">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
       <c r="I3" s="1">
         <v>61</v>
       </c>
@@ -1998,9 +2004,15 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="3">
+        <v>45360</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
       <c r="E32" s="1">
         <v>60</v>
       </c>
